--- a/MyData.csv.xlsx
+++ b/MyData.csv.xlsx
@@ -8,20 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Num</t>
   </si>
   <si>
     <t>a</t>
@@ -389,141 +384,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>